--- a/data/trans_orig/P21D6_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D6_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97D90C8D-787B-4241-AB66-D9A8D9C09608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE6DF358-1D63-4F83-99BE-46A5993E435F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3B6A309E-EA88-48C3-AA98-27C7C00848AA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3AF4F782-9486-4A00-B32C-2F03C7017C43}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="288">
-  <si>
-    <t>Población que, necesitandolo, no pudo recibir atención fisioterapéutica en 2023 (Tasa respuesta: 43,82%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="286">
+  <si>
+    <t>Población que, necesitándolo, no pudo recibir atención fisioterapéutica en 2023 (Tasa respuesta: 43,82%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,16 +74,16 @@
     <t>88,36%</t>
   </si>
   <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
   </si>
   <si>
     <t>82,2%</t>
   </si>
   <si>
-    <t>76,32%</t>
+    <t>76,31%</t>
   </si>
   <si>
     <t>86,9%</t>
@@ -92,10 +92,10 @@
     <t>85,38%</t>
   </si>
   <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -104,28 +104,28 @@
     <t>11,64%</t>
   </si>
   <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
   </si>
   <si>
     <t>16,57%</t>
   </si>
   <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
   </si>
   <si>
     <t>14,02%</t>
   </si>
   <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -143,13 +143,13 @@
     <t>0,41%</t>
   </si>
   <si>
-    <t>2,1%</t>
+    <t>2,15%</t>
   </si>
   <si>
     <t>0,2%</t>
   </si>
   <si>
-    <t>0,9%</t>
+    <t>0,98%</t>
   </si>
   <si>
     <t>No lo pudo recibir por motivos económicos</t>
@@ -158,745 +158,739 @@
     <t>0,82%</t>
   </si>
   <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
     <t>2,39%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
   </si>
   <si>
     <t>8,22%</t>
   </si>
   <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
     <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1311,7 +1305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B58A16B9-06F5-4A89-BE49-BBB07ED4D889}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E288F5D3-7771-44A8-9C47-CA7AEDB835A3}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2311,10 +2305,10 @@
         <v>128</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -2323,13 +2317,13 @@
         <v>1300</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -2338,13 +2332,13 @@
         <v>5170</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2359,13 +2353,13 @@
         <v>1746</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -2374,13 +2368,13 @@
         <v>1193</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -2389,13 +2383,13 @@
         <v>2939</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2451,7 +2445,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2463,13 +2457,13 @@
         <v>72306</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H24" s="7">
         <v>156</v>
@@ -2478,13 +2472,13 @@
         <v>74481</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M24" s="7">
         <v>257</v>
@@ -2493,13 +2487,13 @@
         <v>146787</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,13 +2508,13 @@
         <v>4985</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -2529,13 +2523,13 @@
         <v>3972</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -2544,13 +2538,13 @@
         <v>8957</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2565,13 +2559,13 @@
         <v>752</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2580,13 +2574,13 @@
         <v>903</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -2595,13 +2589,13 @@
         <v>1654</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2622,7 +2616,7 @@
         <v>32</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -2637,7 +2631,7 @@
         <v>32</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -2652,7 +2646,7 @@
         <v>32</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,7 +2702,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2720,13 +2714,13 @@
         <v>118271</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>167</v>
@@ -2735,13 +2729,13 @@
         <v>99121</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>330</v>
@@ -2750,13 +2744,13 @@
         <v>217391</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,13 +2765,13 @@
         <v>11294</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H30" s="7">
         <v>31</v>
@@ -2786,13 +2780,13 @@
         <v>19354</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="M30" s="7">
         <v>44</v>
@@ -2801,13 +2795,13 @@
         <v>30647</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>189</v>
+        <v>58</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2822,13 +2816,13 @@
         <v>545</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -2837,13 +2831,13 @@
         <v>374</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -2852,13 +2846,13 @@
         <v>919</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,7 +2873,7 @@
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -2888,13 +2882,13 @@
         <v>560</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -2903,13 +2897,13 @@
         <v>560</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,7 +2959,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2977,13 +2971,13 @@
         <v>277929</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H34" s="7">
         <v>386</v>
@@ -2992,13 +2986,13 @@
         <v>288712</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M34" s="7">
         <v>641</v>
@@ -3007,13 +3001,13 @@
         <v>566642</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>17</v>
+        <v>206</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,13 +3022,13 @@
         <v>31086</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H35" s="7">
         <v>37</v>
@@ -3043,13 +3037,13 @@
         <v>27466</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M35" s="7">
         <v>64</v>
@@ -3058,13 +3052,13 @@
         <v>58552</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,13 +3073,13 @@
         <v>2230</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -3094,13 +3088,13 @@
         <v>6216</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>129</v>
+        <v>220</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M36" s="7">
         <v>8</v>
@@ -3109,13 +3103,13 @@
         <v>8447</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,7 +3130,7 @@
         <v>32</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="H37" s="7">
         <v>7</v>
@@ -3145,13 +3139,13 @@
         <v>6097</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M37" s="7">
         <v>7</v>
@@ -3160,13 +3154,13 @@
         <v>6097</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>41</v>
+        <v>229</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3222,7 +3216,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3234,13 +3228,13 @@
         <v>346714</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H39" s="7">
         <v>491</v>
@@ -3249,13 +3243,13 @@
         <v>404798</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K39" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="L39" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M39" s="7">
         <v>807</v>
@@ -3264,13 +3258,13 @@
         <v>751512</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P39" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="P39" s="7" t="s">
+      <c r="Q39" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,13 +3279,13 @@
         <v>66846</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H40" s="7">
         <v>24</v>
@@ -3300,10 +3294,10 @@
         <v>16663</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>246</v>
@@ -3357,7 +3351,7 @@
         <v>32</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="M41" s="7">
         <v>2</v>
@@ -3372,7 +3366,7 @@
         <v>31</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>42</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,13 +3396,13 @@
         <v>644</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -3423,7 +3417,7 @@
         <v>31</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3491,13 +3485,13 @@
         <v>1293273</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H44" s="7">
         <v>2044</v>
@@ -3506,13 +3500,13 @@
         <v>1462081</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M44" s="7">
         <v>3346</v>
@@ -3521,13 +3515,13 @@
         <v>2755355</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3542,13 +3536,13 @@
         <v>183888</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="G45" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H45" s="7">
         <v>240</v>
@@ -3557,13 +3551,13 @@
         <v>159254</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K45" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="K45" s="7" t="s">
+      <c r="L45" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M45" s="7">
         <v>362</v>
@@ -3572,13 +3566,13 @@
         <v>343142</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,13 +3587,13 @@
         <v>30585</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H46" s="7">
         <v>57</v>
@@ -3608,13 +3602,13 @@
         <v>40486</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M46" s="7">
         <v>83</v>
@@ -3623,13 +3617,13 @@
         <v>71071</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3644,13 +3638,13 @@
         <v>8856</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>76</v>
+        <v>282</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="H47" s="7">
         <v>32</v>
@@ -3659,13 +3653,13 @@
         <v>21465</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>75</v>
+        <v>283</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>285</v>
+        <v>139</v>
       </c>
       <c r="M47" s="7">
         <v>40</v>
@@ -3674,13 +3668,13 @@
         <v>30320</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>286</v>
+        <v>220</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>224</v>
+        <v>284</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,7 +3730,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D6_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D6_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE6DF358-1D63-4F83-99BE-46A5993E435F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9642D8E3-911C-4B09-9955-A9E173072213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3AF4F782-9486-4A00-B32C-2F03C7017C43}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1FD2A5CD-60BC-488C-B7A3-161D1BC1818F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1305,7 +1305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E288F5D3-7771-44A8-9C47-CA7AEDB835A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6229E8C3-EBD8-4422-B45F-87A01BAB789D}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D6_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D6_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9642D8E3-911C-4B09-9955-A9E173072213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ED6C7FA-F8E8-4831-907E-5C3AA3652B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1FD2A5CD-60BC-488C-B7A3-161D1BC1818F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FB904A00-DE62-4C75-BF53-7D1DCD6FABFF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="288">
   <si>
     <t>Población que, necesitándolo, no pudo recibir atención fisioterapéutica en 2023 (Tasa respuesta: 43,82%)</t>
   </si>
@@ -74,16 +74,16 @@
     <t>88,36%</t>
   </si>
   <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
   </si>
   <si>
     <t>82,2%</t>
   </si>
   <si>
-    <t>76,31%</t>
+    <t>76,32%</t>
   </si>
   <si>
     <t>86,9%</t>
@@ -92,10 +92,10 @@
     <t>85,38%</t>
   </si>
   <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -104,793 +104,799 @@
     <t>11,64%</t>
   </si>
   <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
   </si>
   <si>
     <t>16,57%</t>
   </si>
   <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
   </si>
   <si>
     <t>14,02%</t>
   </si>
   <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por otros motivos</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por motivos económicos</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
     <t>10,72%</t>
   </si>
   <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por otros motivos</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por motivos económicos</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
   </si>
   <si>
     <t>2,82%</t>
   </si>
   <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1305,7 +1311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6229E8C3-EBD8-4422-B45F-87A01BAB789D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4116E424-8459-42C5-829F-3CDA513696FC}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2305,10 +2311,10 @@
         <v>128</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -2317,13 +2323,13 @@
         <v>1300</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -2332,13 +2338,13 @@
         <v>5170</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2353,13 +2359,13 @@
         <v>1746</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -2368,13 +2374,13 @@
         <v>1193</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -2383,13 +2389,13 @@
         <v>2939</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2445,7 +2451,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2457,13 +2463,13 @@
         <v>72306</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H24" s="7">
         <v>156</v>
@@ -2472,13 +2478,13 @@
         <v>74481</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M24" s="7">
         <v>257</v>
@@ -2487,13 +2493,13 @@
         <v>146787</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2508,13 +2514,13 @@
         <v>4985</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -2523,13 +2529,13 @@
         <v>3972</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -2538,13 +2544,13 @@
         <v>8957</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2559,13 +2565,13 @@
         <v>752</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2574,13 +2580,13 @@
         <v>903</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -2589,13 +2595,13 @@
         <v>1654</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,7 +2622,7 @@
         <v>32</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -2631,7 +2637,7 @@
         <v>32</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -2646,7 +2652,7 @@
         <v>32</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2702,7 +2708,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2714,13 +2720,13 @@
         <v>118271</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>17</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>167</v>
@@ -2729,13 +2735,13 @@
         <v>99121</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>330</v>
@@ -2744,13 +2750,13 @@
         <v>217391</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2765,13 +2771,13 @@
         <v>11294</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H30" s="7">
         <v>31</v>
@@ -2780,13 +2786,13 @@
         <v>19354</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>122</v>
+        <v>187</v>
       </c>
       <c r="M30" s="7">
         <v>44</v>
@@ -2795,13 +2801,13 @@
         <v>30647</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>58</v>
+        <v>189</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2816,13 +2822,13 @@
         <v>545</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -2831,13 +2837,13 @@
         <v>374</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -2846,13 +2852,13 @@
         <v>919</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,7 +2879,7 @@
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -2882,13 +2888,13 @@
         <v>560</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -2897,13 +2903,13 @@
         <v>560</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,7 +2965,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2971,13 +2977,13 @@
         <v>277929</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H34" s="7">
         <v>386</v>
@@ -2986,13 +2992,13 @@
         <v>288712</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M34" s="7">
         <v>641</v>
@@ -3001,13 +3007,13 @@
         <v>566642</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>206</v>
+        <v>17</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,13 +3028,13 @@
         <v>31086</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H35" s="7">
         <v>37</v>
@@ -3037,13 +3043,13 @@
         <v>27466</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M35" s="7">
         <v>64</v>
@@ -3052,13 +3058,13 @@
         <v>58552</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3079,13 @@
         <v>2230</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -3088,13 +3094,13 @@
         <v>6216</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>220</v>
+        <v>129</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M36" s="7">
         <v>8</v>
@@ -3103,13 +3109,13 @@
         <v>8447</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,7 +3136,7 @@
         <v>32</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="H37" s="7">
         <v>7</v>
@@ -3139,13 +3145,13 @@
         <v>6097</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M37" s="7">
         <v>7</v>
@@ -3154,13 +3160,13 @@
         <v>6097</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>229</v>
+        <v>41</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3216,7 +3222,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3228,13 +3234,13 @@
         <v>346714</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H39" s="7">
         <v>491</v>
@@ -3243,13 +3249,13 @@
         <v>404798</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M39" s="7">
         <v>807</v>
@@ -3258,13 +3264,13 @@
         <v>751512</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,13 +3285,13 @@
         <v>66846</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H40" s="7">
         <v>24</v>
@@ -3294,10 +3300,10 @@
         <v>16663</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>245</v>
+        <v>128</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>246</v>
@@ -3351,7 +3357,7 @@
         <v>32</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M41" s="7">
         <v>2</v>
@@ -3366,7 +3372,7 @@
         <v>31</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>253</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3396,13 +3402,13 @@
         <v>644</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -3417,7 +3423,7 @@
         <v>31</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,13 +3491,13 @@
         <v>1293273</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H44" s="7">
         <v>2044</v>
@@ -3500,13 +3506,13 @@
         <v>1462081</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M44" s="7">
         <v>3346</v>
@@ -3515,13 +3521,13 @@
         <v>2755355</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3536,13 +3542,13 @@
         <v>183888</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H45" s="7">
         <v>240</v>
@@ -3551,13 +3557,13 @@
         <v>159254</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M45" s="7">
         <v>362</v>
@@ -3566,13 +3572,13 @@
         <v>343142</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>28</v>
+        <v>272</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3587,13 +3593,13 @@
         <v>30585</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H46" s="7">
         <v>57</v>
@@ -3602,13 +3608,13 @@
         <v>40486</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M46" s="7">
         <v>83</v>
@@ -3617,13 +3623,13 @@
         <v>71071</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3638,13 +3644,13 @@
         <v>8856</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>282</v>
+        <v>76</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="H47" s="7">
         <v>32</v>
@@ -3653,13 +3659,13 @@
         <v>21465</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>283</v>
+        <v>75</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>139</v>
+        <v>285</v>
       </c>
       <c r="M47" s="7">
         <v>40</v>
@@ -3668,13 +3674,13 @@
         <v>30320</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>284</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3730,7 +3736,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D6_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D6_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ED6C7FA-F8E8-4831-907E-5C3AA3652B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A35FD1D1-FB99-4AA3-AD6C-D459AA4D2D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FB904A00-DE62-4C75-BF53-7D1DCD6FABFF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0C4327F8-6557-40F9-A08B-D8464D061AE6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="282">
   <si>
     <t>Población que, necesitándolo, no pudo recibir atención fisioterapéutica en 2023 (Tasa respuesta: 43,82%)</t>
   </si>
@@ -71,61 +71,61 @@
     <t>No lo ha necesitado</t>
   </si>
   <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
   </si>
   <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -140,763 +140,745 @@
     <t>1,25%</t>
   </si>
   <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por motivos económicos</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>2,1%</t>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
   </si>
   <si>
     <t>0,2%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por motivos económicos</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
+    <t>1,22%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1311,7 +1293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4116E424-8459-42C5-829F-3CDA513696FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D49D2FC8-5BC2-453C-8D75-F14EF9E7E44E}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1432,7 +1414,7 @@
         <v>135</v>
       </c>
       <c r="D4" s="7">
-        <v>110891</v>
+        <v>137507</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1447,7 +1429,7 @@
         <v>192</v>
       </c>
       <c r="I4" s="7">
-        <v>96605</v>
+        <v>104116</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1462,7 +1444,7 @@
         <v>327</v>
       </c>
       <c r="N4" s="7">
-        <v>207495</v>
+        <v>241623</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1483,7 +1465,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="7">
-        <v>14601</v>
+        <v>16759</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1498,7 +1480,7 @@
         <v>38</v>
       </c>
       <c r="I5" s="7">
-        <v>19479</v>
+        <v>20702</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1513,7 +1495,7 @@
         <v>56</v>
       </c>
       <c r="N5" s="7">
-        <v>34080</v>
+        <v>37461</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1549,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1564,7 +1546,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>36</v>
@@ -1600,31 +1582,31 @@
         <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>962</v>
+        <v>1005</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>962</v>
+        <v>1005</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1636,51 +1618,51 @@
         <v>153</v>
       </c>
       <c r="D8" s="7">
-        <v>125492</v>
+        <v>154266</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>233</v>
       </c>
       <c r="I8" s="7">
-        <v>117523</v>
+        <v>126317</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M8" s="7">
         <v>386</v>
       </c>
       <c r="N8" s="7">
-        <v>243015</v>
+        <v>280583</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1689,46 +1671,46 @@
         <v>120</v>
       </c>
       <c r="D9" s="7">
-        <v>157596</v>
+        <v>157798</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="H9" s="7">
         <v>234</v>
       </c>
       <c r="I9" s="7">
-        <v>189168</v>
+        <v>175787</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="M9" s="7">
         <v>354</v>
       </c>
       <c r="N9" s="7">
-        <v>346764</v>
+        <v>333585</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1740,46 +1722,46 @@
         <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>27470</v>
+        <v>28112</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>42</v>
+      </c>
+      <c r="I10" s="7">
+        <v>29327</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="7">
-        <v>42</v>
-      </c>
-      <c r="I10" s="7">
-        <v>31402</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
       </c>
       <c r="N10" s="7">
-        <v>58872</v>
+        <v>57439</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1791,46 +1773,46 @@
         <v>16</v>
       </c>
       <c r="D11" s="7">
-        <v>20018</v>
+        <v>19389</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H11" s="7">
         <v>44</v>
       </c>
       <c r="I11" s="7">
-        <v>31215</v>
+        <v>29002</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M11" s="7">
         <v>60</v>
       </c>
       <c r="N11" s="7">
-        <v>51234</v>
+        <v>48391</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1842,46 +1824,46 @@
         <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>5086</v>
+        <v>4945</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>2188</v>
+        <v>2017</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
       </c>
       <c r="N12" s="7">
-        <v>7273</v>
+        <v>6962</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1893,51 +1875,51 @@
         <v>159</v>
       </c>
       <c r="D13" s="7">
-        <v>210170</v>
+        <v>210244</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H13" s="7">
         <v>324</v>
       </c>
       <c r="I13" s="7">
-        <v>253973</v>
+        <v>236133</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M13" s="7">
         <v>483</v>
       </c>
       <c r="N13" s="7">
-        <v>464143</v>
+        <v>446377</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1946,46 +1928,46 @@
         <v>104</v>
       </c>
       <c r="D14" s="7">
-        <v>89706</v>
+        <v>87216</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H14" s="7">
         <v>191</v>
       </c>
       <c r="I14" s="7">
-        <v>133565</v>
+        <v>125373</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M14" s="7">
         <v>295</v>
       </c>
       <c r="N14" s="7">
-        <v>223271</v>
+        <v>212589</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1997,46 +1979,46 @@
         <v>7</v>
       </c>
       <c r="D15" s="7">
-        <v>5934</v>
+        <v>5728</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H15" s="7">
         <v>17</v>
       </c>
       <c r="I15" s="7">
-        <v>11881</v>
+        <v>11054</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M15" s="7">
         <v>24</v>
       </c>
       <c r="N15" s="7">
-        <v>17815</v>
+        <v>16783</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2057,7 +2039,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2072,7 +2054,7 @@
         <v>32</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2099,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>2024</v>
+        <v>1968</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>102</v>
@@ -2114,7 +2096,7 @@
         <v>15</v>
       </c>
       <c r="I17" s="7">
-        <v>9820</v>
+        <v>9114</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>104</v>
@@ -2129,7 +2111,7 @@
         <v>17</v>
       </c>
       <c r="N17" s="7">
-        <v>11844</v>
+        <v>11082</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>107</v>
@@ -2150,46 +2132,46 @@
         <v>113</v>
       </c>
       <c r="D18" s="7">
-        <v>97664</v>
+        <v>94912</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H18" s="7">
         <v>223</v>
       </c>
       <c r="I18" s="7">
-        <v>155266</v>
+        <v>145541</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M18" s="7">
         <v>336</v>
       </c>
       <c r="N18" s="7">
-        <v>252930</v>
+        <v>240453</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2203,7 +2185,7 @@
         <v>108</v>
       </c>
       <c r="D19" s="7">
-        <v>119862</v>
+        <v>114461</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>111</v>
@@ -2218,7 +2200,7 @@
         <v>227</v>
       </c>
       <c r="I19" s="7">
-        <v>175630</v>
+        <v>217694</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>114</v>
@@ -2233,7 +2215,7 @@
         <v>335</v>
       </c>
       <c r="N19" s="7">
-        <v>295493</v>
+        <v>332155</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>117</v>
@@ -2254,7 +2236,7 @@
         <v>17</v>
       </c>
       <c r="D20" s="7">
-        <v>21672</v>
+        <v>21476</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>120</v>
@@ -2269,22 +2251,22 @@
         <v>46</v>
       </c>
       <c r="I20" s="7">
-        <v>29038</v>
+        <v>26536</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="M20" s="7">
         <v>63</v>
       </c>
       <c r="N20" s="7">
-        <v>50710</v>
+        <v>48012</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>125</v>
@@ -2305,7 +2287,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="7">
-        <v>3870</v>
+        <v>3756</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>128</v>
@@ -2320,31 +2302,31 @@
         <v>3</v>
       </c>
       <c r="I21" s="7">
-        <v>1300</v>
+        <v>1223</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>131</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
       </c>
       <c r="N21" s="7">
-        <v>5170</v>
+        <v>4979</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2356,43 +2338,43 @@
         <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>1746</v>
+        <v>1684</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>1193</v>
+        <v>1108</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
       </c>
       <c r="N22" s="7">
-        <v>2939</v>
+        <v>2792</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>142</v>
@@ -2407,46 +2389,46 @@
         <v>131</v>
       </c>
       <c r="D23" s="7">
-        <v>147150</v>
+        <v>141377</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H23" s="7">
         <v>278</v>
       </c>
       <c r="I23" s="7">
-        <v>207161</v>
+        <v>246560</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M23" s="7">
         <v>409</v>
       </c>
       <c r="N23" s="7">
-        <v>354311</v>
+        <v>387937</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2460,7 +2442,7 @@
         <v>101</v>
       </c>
       <c r="D24" s="7">
-        <v>72306</v>
+        <v>65545</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>144</v>
@@ -2475,7 +2457,7 @@
         <v>156</v>
       </c>
       <c r="I24" s="7">
-        <v>74481</v>
+        <v>67232</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>147</v>
@@ -2490,7 +2472,7 @@
         <v>257</v>
       </c>
       <c r="N24" s="7">
-        <v>146787</v>
+        <v>132776</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>150</v>
@@ -2511,7 +2493,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="7">
-        <v>4985</v>
+        <v>4483</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>153</v>
@@ -2526,31 +2508,31 @@
         <v>5</v>
       </c>
       <c r="I25" s="7">
-        <v>3972</v>
+        <v>3305</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>156</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
       </c>
       <c r="N25" s="7">
-        <v>8957</v>
+        <v>7788</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2562,46 +2544,46 @@
         <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>752</v>
+        <v>676</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>903</v>
+        <v>825</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
       </c>
       <c r="N26" s="7">
-        <v>1654</v>
+        <v>1501</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2622,7 +2604,7 @@
         <v>32</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -2637,7 +2619,7 @@
         <v>32</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -2652,7 +2634,7 @@
         <v>32</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,51 +2646,51 @@
         <v>108</v>
       </c>
       <c r="D28" s="7">
-        <v>78042</v>
+        <v>70704</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H28" s="7">
         <v>163</v>
       </c>
       <c r="I28" s="7">
-        <v>79356</v>
+        <v>71362</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M28" s="7">
         <v>271</v>
       </c>
       <c r="N28" s="7">
-        <v>157398</v>
+        <v>142066</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2717,46 +2699,46 @@
         <v>163</v>
       </c>
       <c r="D29" s="7">
-        <v>118271</v>
+        <v>114308</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>167</v>
       </c>
       <c r="I29" s="7">
-        <v>99121</v>
+        <v>92130</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>330</v>
       </c>
       <c r="N29" s="7">
-        <v>217391</v>
+        <v>206438</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2768,46 +2750,46 @@
         <v>13</v>
       </c>
       <c r="D30" s="7">
-        <v>11294</v>
+        <v>10765</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H30" s="7">
         <v>31</v>
       </c>
       <c r="I30" s="7">
-        <v>19354</v>
+        <v>17956</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M30" s="7">
         <v>44</v>
       </c>
       <c r="N30" s="7">
-        <v>30647</v>
+        <v>28722</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2819,46 +2801,46 @@
         <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>545</v>
+        <v>521</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
       </c>
       <c r="I31" s="7">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
       </c>
       <c r="N31" s="7">
-        <v>919</v>
+        <v>872</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>196</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,37 +2861,37 @@
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>560</v>
+        <v>515</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
       </c>
       <c r="N32" s="7">
-        <v>560</v>
+        <v>515</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,51 +2903,51 @@
         <v>177</v>
       </c>
       <c r="D33" s="7">
-        <v>130109</v>
+        <v>125594</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H33" s="7">
         <v>200</v>
       </c>
       <c r="I33" s="7">
-        <v>119410</v>
+        <v>110952</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M33" s="7">
         <v>377</v>
       </c>
       <c r="N33" s="7">
-        <v>249518</v>
+        <v>236546</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2974,46 +2956,46 @@
         <v>255</v>
       </c>
       <c r="D34" s="7">
-        <v>277929</v>
+        <v>277674</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H34" s="7">
         <v>386</v>
       </c>
       <c r="I34" s="7">
-        <v>288712</v>
+        <v>269648</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M34" s="7">
         <v>641</v>
       </c>
       <c r="N34" s="7">
-        <v>566642</v>
+        <v>547322</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>17</v>
+        <v>206</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,46 +3007,46 @@
         <v>27</v>
       </c>
       <c r="D35" s="7">
-        <v>31086</v>
+        <v>31073</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H35" s="7">
         <v>37</v>
       </c>
       <c r="I35" s="7">
-        <v>27466</v>
+        <v>25620</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M35" s="7">
         <v>64</v>
       </c>
       <c r="N35" s="7">
-        <v>58552</v>
+        <v>56693</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,46 +3058,46 @@
         <v>2</v>
       </c>
       <c r="D36" s="7">
-        <v>2230</v>
+        <v>2209</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
       </c>
       <c r="I36" s="7">
-        <v>6216</v>
+        <v>5974</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>129</v>
+        <v>219</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>223</v>
+        <v>162</v>
       </c>
       <c r="M36" s="7">
         <v>8</v>
       </c>
       <c r="N36" s="7">
-        <v>8447</v>
+        <v>8183</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,37 +3118,37 @@
         <v>32</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>227</v>
+        <v>129</v>
       </c>
       <c r="H37" s="7">
         <v>7</v>
       </c>
       <c r="I37" s="7">
-        <v>6097</v>
+        <v>5612</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>229</v>
+        <v>140</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="M37" s="7">
         <v>7</v>
       </c>
       <c r="N37" s="7">
-        <v>6097</v>
+        <v>5612</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>232</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3178,51 +3160,51 @@
         <v>284</v>
       </c>
       <c r="D38" s="7">
-        <v>311246</v>
+        <v>310956</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H38" s="7">
         <v>436</v>
       </c>
       <c r="I38" s="7">
-        <v>328491</v>
+        <v>306854</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M38" s="7">
         <v>720</v>
       </c>
       <c r="N38" s="7">
-        <v>639738</v>
+        <v>617810</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3231,46 +3213,46 @@
         <v>316</v>
       </c>
       <c r="D39" s="7">
-        <v>346714</v>
+        <v>293516</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H39" s="7">
         <v>491</v>
       </c>
       <c r="I39" s="7">
-        <v>404798</v>
+        <v>334534</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="M39" s="7">
         <v>807</v>
       </c>
       <c r="N39" s="7">
-        <v>751512</v>
+        <v>628049</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3282,46 +3264,46 @@
         <v>15</v>
       </c>
       <c r="D40" s="7">
-        <v>66846</v>
+        <v>257733</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="H40" s="7">
         <v>24</v>
       </c>
       <c r="I40" s="7">
-        <v>16663</v>
+        <v>13864</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>128</v>
+        <v>238</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="M40" s="7">
         <v>39</v>
       </c>
       <c r="N40" s="7">
-        <v>83509</v>
+        <v>271597</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3333,16 +3315,16 @@
         <v>2</v>
       </c>
       <c r="D41" s="7">
-        <v>3170</v>
+        <v>2667</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -3357,22 +3339,22 @@
         <v>32</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M41" s="7">
         <v>2</v>
       </c>
       <c r="N41" s="7">
-        <v>3170</v>
+        <v>2667</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>42</v>
+        <v>246</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3399,31 +3381,31 @@
         <v>1</v>
       </c>
       <c r="I42" s="7">
-        <v>644</v>
+        <v>550</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>253</v>
+        <v>141</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
       </c>
       <c r="N42" s="7">
-        <v>644</v>
+        <v>550</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3435,46 +3417,46 @@
         <v>333</v>
       </c>
       <c r="D43" s="7">
-        <v>416730</v>
+        <v>553916</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H43" s="7">
         <v>516</v>
       </c>
       <c r="I43" s="7">
-        <v>422105</v>
+        <v>348949</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M43" s="7">
         <v>849</v>
       </c>
       <c r="N43" s="7">
-        <v>838835</v>
+        <v>902864</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3488,46 +3470,46 @@
         <v>1302</v>
       </c>
       <c r="D44" s="7">
-        <v>1293273</v>
+        <v>1248024</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="H44" s="7">
         <v>2044</v>
       </c>
       <c r="I44" s="7">
-        <v>1462081</v>
+        <v>1386513</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="M44" s="7">
         <v>3346</v>
       </c>
       <c r="N44" s="7">
-        <v>2755355</v>
+        <v>2634537</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3539,46 +3521,46 @@
         <v>122</v>
       </c>
       <c r="D45" s="7">
-        <v>183888</v>
+        <v>376130</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="H45" s="7">
         <v>240</v>
       </c>
       <c r="I45" s="7">
-        <v>159254</v>
+        <v>148365</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="M45" s="7">
         <v>362</v>
       </c>
       <c r="N45" s="7">
-        <v>343142</v>
+        <v>524495</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3590,46 +3572,46 @@
         <v>26</v>
       </c>
       <c r="D46" s="7">
-        <v>30585</v>
+        <v>29217</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>275</v>
+        <v>167</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="H46" s="7">
         <v>57</v>
       </c>
       <c r="I46" s="7">
-        <v>40486</v>
+        <v>37868</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>279</v>
+        <v>167</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="M46" s="7">
         <v>83</v>
       </c>
       <c r="N46" s="7">
-        <v>71071</v>
+        <v>67086</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3641,46 +3623,46 @@
         <v>8</v>
       </c>
       <c r="D47" s="7">
-        <v>8856</v>
+        <v>8597</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>139</v>
+        <v>275</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>76</v>
+        <v>276</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>170</v>
+        <v>277</v>
       </c>
       <c r="H47" s="7">
         <v>32</v>
       </c>
       <c r="I47" s="7">
-        <v>21465</v>
+        <v>19921</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>284</v>
+        <v>33</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>285</v>
+        <v>142</v>
       </c>
       <c r="M47" s="7">
         <v>40</v>
       </c>
       <c r="N47" s="7">
-        <v>30320</v>
+        <v>28518</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>231</v>
+        <v>278</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>224</v>
+        <v>280</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,51 +3674,51 @@
         <v>1458</v>
       </c>
       <c r="D48" s="7">
-        <v>1516602</v>
+        <v>1661969</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H48" s="7">
         <v>2373</v>
       </c>
       <c r="I48" s="7">
-        <v>1683286</v>
+        <v>1592667</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M48" s="7">
         <v>3831</v>
       </c>
       <c r="N48" s="7">
-        <v>3199888</v>
+        <v>3254636</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
